--- a/wikilenium-core/src/test/resources/ValidTestBatch.xlsx
+++ b/wikilenium-core/src/test/resources/ValidTestBatch.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DF45596-1363-41A0-B83D-CE4F1EBDDBF9}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C27B164-3210-4104-A2AC-16FDDB6B3451}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="380" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,8 +44,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -75,7 +83,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -359,7 +367,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
